--- a/OnBoard/output/trust/catch/Catch_Trust_3.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1761,7 @@
         <v>0.247</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34">
         <v>23.80529411764706</v>
@@ -1925,7 +1925,7 @@
         <v>0.539</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38">
         <v>23.80529411764706</v>
@@ -2323,19 +2323,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Maja squinado</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MAJASQU</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>23.80529411764706</v>
@@ -2364,19 +2364,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.001</v>
+        <v>0.123</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I49">
         <v>23.80529411764706</v>
@@ -2405,19 +2405,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ocnus planci (=Cucumaria planci)</t>
+          <t>Ophiothrix fragilis</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>OCNUPLA</t>
+          <t>OPHIFRA</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.123</v>
+        <v>0.197</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="I50">
         <v>23.80529411764706</v>
@@ -2446,19 +2446,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ophiothrix fragilis</t>
+          <t>Ophiotrix quinquemaculata</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>OPHIFRA</t>
+          <t>OPHIQUI</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.197</v>
+        <v>0.077</v>
       </c>
       <c r="H51">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="I51">
         <v>23.80529411764706</v>
@@ -2487,19 +2487,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ophiotrix quinquemaculata</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>OPHIQUI</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.077</v>
+        <v>0.015</v>
       </c>
       <c r="H52">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="I52">
         <v>23.80529411764706</v>
@@ -2528,19 +2528,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Paguristes eremita</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PAGUERE</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.015</v>
+        <v>0.078</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I53">
         <v>23.80529411764706</v>
@@ -2569,19 +2569,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Paguristes eremita</t>
+          <t>Pagurus prideauxi</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PAGUERE</t>
+          <t>PAGUPRI</t>
         </is>
       </c>
       <c r="G54">
-        <v>0.078</v>
+        <v>0.026</v>
       </c>
       <c r="H54">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="I54">
         <v>23.80529411764706</v>
@@ -2610,19 +2610,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pagurus prideauxi</t>
+          <t>Parthenope angulifrons</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PAGUPRI</t>
+          <t>PARTANG</t>
         </is>
       </c>
       <c r="G55">
-        <v>0.026</v>
+        <v>0.008</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>23.80529411764706</v>
@@ -2651,19 +2651,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Parthenope angulifrons</t>
+          <t>Pilumnus sp</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PARTANG</t>
+          <t>PILUMSP</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>23.80529411764706</v>
@@ -2692,19 +2692,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pilumnus sp</t>
+          <t>Pisidia longicornis</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PILUMSP</t>
+          <t>PISILON</t>
         </is>
       </c>
       <c r="G57">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57">
         <v>23.80529411764706</v>
@@ -2733,19 +2733,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Pisidia longicornis</t>
+          <t>Porifera nd</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PISILON</t>
+          <t>PORIFND</t>
         </is>
       </c>
       <c r="G58">
-        <v>0.001</v>
+        <v>0.045</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I58">
         <v>23.80529411764706</v>
@@ -2774,19 +2774,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Porifera nd</t>
+          <t>Psammechinus microtuberculatus</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PORIFND</t>
+          <t>PSAMMIC</t>
         </is>
       </c>
       <c r="G59">
-        <v>0.045</v>
+        <v>0.301</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I59">
         <v>23.80529411764706</v>
@@ -2815,19 +2815,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Psammechinus microtuberculatus</t>
+          <t>Pyura dura</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PSAMMIC</t>
+          <t>PYURADU</t>
         </is>
       </c>
       <c r="G60">
-        <v>0.301</v>
+        <v>0.015</v>
       </c>
       <c r="H60">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>23.80529411764706</v>
@@ -2856,19 +2856,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pyura dura</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PYURADU</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G61">
-        <v>0.015</v>
+        <v>3.729</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I61">
         <v>23.80529411764706</v>
@@ -2897,19 +2897,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Suberites domuncula</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>SUBEDOM</t>
         </is>
       </c>
       <c r="G62">
-        <v>3.729</v>
+        <v>0.348</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I62">
         <v>23.80529411764706</v>
@@ -2938,19 +2938,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Suberites domuncula</t>
+          <t>Tethys fimbria</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SUBEDOM</t>
+          <t>TETHFIM</t>
         </is>
       </c>
       <c r="G63">
-        <v>0.348</v>
+        <v>0.02</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>23.80529411764706</v>
@@ -2979,62 +2979,21 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tethys fimbria</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TETHFIM</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G64">
-        <v>0.02</v>
+        <v>0.106</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I64">
-        <v>23.80529411764706</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G65">
-        <v>0.106</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
         <v>23.80529411764706</v>
       </c>
     </row>
